--- a/biology/Histoire de la zoologie et de la botanique/George_Edward_Post/George_Edward_Post.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Edward_Post/George_Edward_Post.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Edward Post, né le 17 décembre 1838 à New York et mort le 1er avril 1909 en Syrie (actuel Liban), dans l'Empire ottoman, est un médecin et botaniste américain qui s'intéressa à la flore du Moyen-Orient.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il écrivit la première version de la flore du Moyen-Orient, en 1896, pendant qu'il était professeur de chirurgie et missionnaire presbytérien au collège protestant de Syrie, situé à Beyrouth (actuel Liban). C'est aujourd'hui l'université américaine de Beyrouth. Ses collections personnelles, ainsi que celles obtenues par échange, font partie maintenant de l'herbier de l'UAB de Beyrouth.
-Le Dr Post fut un écrivain prolifique dans le domaine de l'histoire naturelle, de la médecine et de la théologie. Il décrivit 221 taxons dans Plantæ Postianæ, série de publications qui parurent à partir de numéro V dans le Bulletin de l'Herbier Boissier[1], sauf une dans le journal de la Linnean Society of London (Linnean Society Journal)[2].
+Le Dr Post fut un écrivain prolifique dans le domaine de l'histoire naturelle, de la médecine et de la théologie. Il décrivit 221 taxons dans Plantæ Postianæ, série de publications qui parurent à partir de numéro V dans le Bulletin de l'Herbier Boissier, sauf une dans le journal de la Linnean Society of London (Linnean Society Journal).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(Asteraceae) Postia Boiss. &amp; Blanche[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Asteraceae) Postia Boiss. &amp; Blanche</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1878. The botanical geography of Syria and Palestine. 50 pp.
 1885. Notes on the meteorology of Syria and Palestine: conférence prononcée devant le Victoria Institute ou Philosophical Soc. of Great Britain. 12 pp.
